--- a/fhir/core/StructureDefinition-ipa-dk-core-observation.xlsx
+++ b/fhir/core/StructureDefinition-ipa-dk-core-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -662,7 +662,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -958,7 +958,7 @@
     <t>Observation.code.coding:NPU.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.208.176.2.1</t>
+    <t>http://npu-terminology.org</t>
   </si>
   <si>
     <t>Observation.code.coding:NPU.version</t>
@@ -1130,7 +1130,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1153,7 +1153,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1524,7 +1524,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1580,7 +1580,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1613,7 +1613,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1691,7 +1691,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1799,7 +1799,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1849,7 +1849,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1882,7 +1882,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1919,7 +1919,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1941,7 +1941,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2576,15 +2576,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2595,28 +2595,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.48828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
